--- a/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
@@ -579,7 +579,7 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4870385289960012</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.8052808516165049</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7647918356973711</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -621,25 +621,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.15</v>
+        <v>0.1305280851616505</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2294375507092113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1764791835697371</v>
+        <v>0.1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>0.2343244164614601</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5094814010610407</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.577923044658189</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4276441445008922</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8052808516165049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>0.997871564022022</v>
+      </c>
+      <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.06263303573083016</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1305280851616505</v>
+        <v>0.1081354419145674</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1096077989574223</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1</v>
+        <v>0.2750483828574564</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2343244164614601</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5094814010610407</v>
+        <v>0.04429709355990884</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.577923044658189</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4276441445008922</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.997871564022022</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.06263303573083016</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.1081354419145674</v>
+        <v>0.3132891280679727</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1096077989574223</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2750483828574564</v>
+        <v>0.2522148546779954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4870385289960012</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -588,60 +573,51 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7647918356973711</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32.35</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2294375507092113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1764791835697371</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
